--- a/data/max_speed.xlsx
+++ b/data/max_speed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>max_speed</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>max_speed_min_per_km</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,19 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prépa Trail 42km W2S2</t>
+          <t>Prépa Trail 42km W2S3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16150214950</v>
+        <v>16169083327</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-15T14:59:57Z</t>
+          <t>2025-10-17T10:27:52Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.8</v>
+        <v>15.91</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>03:46</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -482,19 +492,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prépa Trail 42km W2S1</t>
+          <t>Prépa Trail 42km W2S2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16137965500</v>
+        <v>16150214950</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-14T13:15:30Z</t>
+          <t>2025-10-15T14:59:57Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.96</v>
+        <v>17.28</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>03:28</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -503,19 +518,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Prépa Trail 42km W2S1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16126906432</v>
+        <v>16137965500</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-13T13:13:57Z</t>
+          <t>2025-10-14T13:15:30Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.8</v>
+        <v>14.26</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>04:12</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -524,19 +544,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prépa Trail 42km W1S4</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16097780019</v>
+        <v>16126906432</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-10T15:45:59Z</t>
+          <t>2025-10-13T13:13:57Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.22</v>
+        <v>17.28</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>03:28</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -545,19 +570,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prépa Trail 42km W1S3</t>
+          <t>Prépa Trail 42km W1S4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16087030269</v>
+        <v>16097780019</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-09T15:40:20Z</t>
+          <t>2025-10-10T15:45:59Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.38</v>
+        <v>15.19</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>03:57</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -566,19 +596,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prépa Trail 42km W1S2</t>
+          <t>Prépa Trail 42km W1S3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16060227073</v>
+        <v>16087030269</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-07T07:51:20Z</t>
+          <t>2025-10-09T15:40:20Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.28</v>
+        <v>12.17</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>04:55</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -587,19 +622,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prepa Trail 42km W1S1</t>
+          <t>Prépa Trail 42km W1S2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16052064576</v>
+        <v>16060227073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-06T13:13:32Z</t>
+          <t>2025-10-07T07:51:20Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.52</v>
+        <v>15.41</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>03:53</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -608,19 +648,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Prepa Trail 42km W1S1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16042095186</v>
+        <v>16052064576</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-05T13:31:57Z</t>
+          <t>2025-10-06T13:13:32Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.32</v>
+        <v>12.67</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>04:44</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -629,19 +674,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16017710458</v>
+        <v>16042095186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-03T07:40:45Z</t>
+          <t>2025-10-05T13:31:57Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.14</v>
+        <v>11.95</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>05:01</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -650,19 +700,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16009594434</v>
+        <v>16017710458</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-02T12:43:55Z</t>
+          <t>2025-10-03T07:40:45Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.44</v>
+        <v>14.9</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>04:01</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -671,19 +726,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Prépa 23km trail</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15984024772</v>
+        <v>16009594434</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-09-30T08:01:54Z</t>
+          <t>2025-10-02T12:43:55Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.38</v>
+        <v>12.38</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>04:50</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -692,19 +752,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10km Rouen</t>
+          <t>Prépa 23km trail</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15957244593</v>
+        <v>15984024772</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-09-27T19:12:00Z</t>
+          <t>2025-09-30T08:01:54Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.48</v>
+        <v>12.17</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>04:55</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -713,19 +778,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fin de carrière...</t>
+          <t>10km Rouen</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15683439604</v>
+        <v>15957244593</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-09-03T14:13:07Z</t>
+          <t>2025-09-27T19:12:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.2</v>
+        <v>19.73</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>03:02</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -734,19 +804,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LETSSSSGOOOO</t>
+          <t>Fin de carrière...</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15645599213</v>
+        <v>15683439604</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-08-31T07:00:16Z</t>
+          <t>2025-09-03T14:13:07Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.38</v>
+        <v>15.12</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>03:58</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -755,19 +830,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>J-6 Trail de Vernon, je suis trop hype</t>
+          <t>LETSSSSGOOOO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15580688900</v>
+        <v>15645599213</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-08-25T12:56:21Z</t>
+          <t>2025-08-31T07:00:16Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.52</v>
+        <v>19.37</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>03:06</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -776,19 +856,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>First trail ever</t>
+          <t>J-6 Trail de Vernon, je suis trop hype</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15558094920</v>
+        <v>15580688900</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-08-23T11:27:07Z</t>
+          <t>2025-08-25T12:56:21Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.74</v>
+        <v>12.67</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>04:44</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -797,19 +882,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>First trail ever</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15547562025</v>
+        <v>15558094920</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-08-22T13:56:48Z</t>
+          <t>2025-08-23T11:27:07Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.64</v>
+        <v>13.46</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>04:27</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -818,19 +908,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Entraînement 10km Rouen</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15536836544</v>
+        <v>15547562025</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-08-21T14:28:49Z</t>
+          <t>2025-08-22T13:56:48Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.68</v>
+        <v>16.7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>03:35</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -843,15 +938,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15525806695</v>
+        <v>15536836544</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-08-20T14:48:08Z</t>
+          <t>2025-08-21T14:28:49Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.22</v>
+        <v>16.85</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>03:33</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -864,15 +964,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15514449122</v>
+        <v>15525806695</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-08-19T15:03:42Z</t>
+          <t>2025-08-20T14:48:08Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.56</v>
+        <v>15.19</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>03:57</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -885,15 +990,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15503090113</v>
+        <v>15514449122</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-08-18T16:17:50Z</t>
+          <t>2025-08-19T15:03:42Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.82</v>
+        <v>12.82</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>04:40</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -906,15 +1016,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15478552266</v>
+        <v>15503090113</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-08-16T12:32:43Z</t>
+          <t>2025-08-18T16:17:50Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.34</v>
+        <v>13.75</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>04:21</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -923,19 +1038,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Entraînement 10km Rouen</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15456578422</v>
+        <v>15478552266</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-08-14T13:16:55Z</t>
+          <t>2025-08-16T12:32:43Z</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.78</v>
+        <v>26.42</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>02:16</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -944,19 +1064,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Test max 1km</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15445992238</v>
+        <v>15456578422</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-08-13T15:07:33Z</t>
+          <t>2025-08-14T13:16:55Z</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5.42</v>
+        <v>13.61</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>04:24</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -965,19 +1090,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Test max 1km</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15445987298</v>
+        <v>15445992238</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-08-13T14:26:18Z</t>
+          <t>2025-08-13T15:07:33Z</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.18</v>
+        <v>19.51</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>03:04</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -986,19 +1116,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Entraînement 10km Rouen</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15423166571</v>
+        <v>15445987298</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-08-11T16:03:54Z</t>
+          <t>2025-08-13T14:26:18Z</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.06</v>
+        <v>11.45</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>05:14</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1011,15 +1146,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15397589034</v>
+        <v>15423166571</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-08-09T10:43:33Z</t>
+          <t>2025-08-11T16:03:54Z</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.28</v>
+        <v>14.62</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>04:05</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1032,15 +1172,20 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15385912981</v>
+        <v>15397589034</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-08-08T09:33:09Z</t>
+          <t>2025-08-09T10:43:33Z</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.28</v>
+        <v>15.41</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>03:53</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1053,15 +1198,20 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15374295773</v>
+        <v>15385912981</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-08-07T09:16:02Z</t>
+          <t>2025-08-08T09:33:09Z</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4.14</v>
+        <v>15.41</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>03:53</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1074,15 +1224,20 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15363073239</v>
+        <v>15374295773</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-08-06T10:06:15Z</t>
+          <t>2025-08-07T09:16:02Z</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.14</v>
+        <v>14.9</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>04:01</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1095,15 +1250,20 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15342084372</v>
+        <v>15363073239</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-08-04T13:42:43Z</t>
+          <t>2025-08-06T10:06:15Z</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.38</v>
+        <v>14.9</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>04:01</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1116,15 +1276,20 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15329695967</v>
+        <v>15342084372</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-08-03T11:37:53Z</t>
+          <t>2025-08-04T13:42:43Z</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3.66</v>
+        <v>15.77</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>03:47</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1137,15 +1302,20 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15317525853</v>
+        <v>15329695967</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-08-02T10:28:03Z</t>
+          <t>2025-08-03T11:37:53Z</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.64</v>
+        <v>13.18</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>04:32</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1154,28 +1324,59 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Entraînement 10km Rouen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15317525853</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-08-02T10:28:03Z</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Entraînement 10km Rouen
 Séance 2:
 Course 31min: 5:40</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>15306203468</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>2025-08-01T09:04:56Z</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Entraînement 10km Rouen
 Séance 1:
@@ -1186,37 +1387,21 @@
 Récup 10min: 5:45/6:00</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>15297817567</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>2025-07-31T13:00:00Z</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Afternoon Run</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15285997331</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2025-07-30T12:14:42Z</t>
-        </is>
-      </c>
       <c r="E37" t="n">
-        <v>3.64</v>
+        <v>14.62</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>04:05</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1229,15 +1414,20 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15263326373</v>
+        <v>15285997331</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-07-28T13:00:32Z</t>
+          <t>2025-07-30T12:14:42Z</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.18</v>
+        <v>13.1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>04:34</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1250,15 +1440,20 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15005178636</v>
+        <v>15263326373</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-07-04T14:09:23Z</t>
+          <t>2025-07-28T13:00:32Z</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4.12</v>
+        <v>15.05</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>03:59</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1271,15 +1466,20 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14932925820</v>
+        <v>15005178636</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-06-27T14:39:50Z</t>
+          <t>2025-07-04T14:09:23Z</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4.22</v>
+        <v>14.83</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>04:02</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1292,15 +1492,20 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14900433439</v>
+        <v>14932925820</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-06-24T12:17:01Z</t>
+          <t>2025-06-27T14:39:50Z</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>15.19</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>03:57</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1313,15 +1518,20 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14891351850</v>
+        <v>14900433439</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-06-23T14:56:52Z</t>
+          <t>2025-06-24T12:17:01Z</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.42</v>
+        <v>14.4</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>04:10</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1334,15 +1544,20 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14859329053</v>
+        <v>14891351850</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-06-20T11:52:36Z</t>
+          <t>2025-06-23T14:56:52Z</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.54</v>
+        <v>15.91</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>03:46</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1355,15 +1570,20 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>14849530931</v>
+        <v>14859329053</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-06-19T12:52:26Z</t>
+          <t>2025-06-20T11:52:36Z</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.2</v>
+        <v>16.34</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>03:40</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1376,15 +1596,20 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>14827190315</v>
+        <v>14849530931</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-06-17T12:20:27Z</t>
+          <t>2025-06-19T12:52:26Z</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.32</v>
+        <v>15.12</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>03:58</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1397,15 +1622,20 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>14765585964</v>
+        <v>14827190315</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-06-11T11:56:26Z</t>
+          <t>2025-06-17T12:20:27Z</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.76</v>
+        <v>15.55</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>03:51</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1418,15 +1648,20 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14705674214</v>
+        <v>14765585964</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-06-05T15:24:59Z</t>
+          <t>2025-06-11T11:56:26Z</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.14</v>
+        <v>13.54</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>04:25</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1439,15 +1674,20 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>14672412149</v>
+        <v>14705674214</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-06-02T13:09:39Z</t>
+          <t>2025-06-05T15:24:59Z</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.52</v>
+        <v>14.9</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>04:01</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1460,15 +1700,20 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>14599074552</v>
+        <v>14672412149</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-05-26T11:23:44Z</t>
+          <t>2025-06-02T13:09:39Z</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4.5</v>
+        <v>16.27</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>03:41</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1477,19 +1722,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>14588937438</v>
+        <v>14599074552</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-05-25T10:24:18Z</t>
+          <t>2025-05-26T11:23:44Z</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>16.2</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>03:42</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1502,15 +1752,20 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>14559614406</v>
+        <v>14588937438</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-05-22T10:53:03Z</t>
+          <t>2025-05-25T10:24:18Z</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4.34</v>
+        <v>14.4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>04:10</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1519,19 +1774,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14527881525</v>
+        <v>14559614406</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-05-19T11:34:24Z</t>
+          <t>2025-05-22T10:53:03Z</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4.74</v>
+        <v>15.62</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>03:50</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1544,15 +1804,20 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>14519123569</v>
+        <v>14527881525</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-05-18T12:57:57Z</t>
+          <t>2025-05-19T11:34:24Z</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.5</v>
+        <v>17.06</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>03:31</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1561,19 +1826,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Evening Run</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14500287563</v>
+        <v>14519123569</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-05-16T16:39:25Z</t>
+          <t>2025-05-18T12:57:57Z</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.34</v>
+        <v>16.2</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>03:42</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1582,19 +1852,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Morning Run</t>
+          <t>Evening Run</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14463939601</v>
+        <v>14500287563</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-05-13T07:18:08Z</t>
+          <t>2025-05-16T16:39:25Z</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3.84</v>
+        <v>19.22</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>03:07</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1603,19 +1878,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Morning Run</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14446878617</v>
+        <v>14463939601</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-05-11T13:06:14Z</t>
+          <t>2025-05-13T07:18:08Z</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.1</v>
+        <v>13.82</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>04:20</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1628,15 +1908,20 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14425356169</v>
+        <v>14446878617</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-05-09T12:37:12Z</t>
+          <t>2025-05-11T13:06:14Z</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4.26</v>
+        <v>14.76</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>04:04</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1645,19 +1930,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>New 5k PR 🎉</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>14406606206</v>
+        <v>14425356169</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-05-07T13:32:10Z</t>
+          <t>2025-05-09T12:37:12Z</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.84</v>
+        <v>15.34</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>03:54</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1666,19 +1956,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Miss PB...</t>
+          <t>New 5k PR 🎉</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>14386025142</v>
+        <v>14406606206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-05-05T15:33:41Z</t>
+          <t>2025-05-07T13:32:10Z</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.3</v>
+        <v>17.42</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>03:26</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1687,19 +1982,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Miss PB...</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14365889461</v>
+        <v>14386025142</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-05-03T14:25:09Z</t>
+          <t>2025-05-05T15:33:41Z</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.96</v>
+        <v>15.48</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>03:52</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1712,15 +2012,20 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>14353861867</v>
+        <v>14365889461</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-05-02T11:53:41Z</t>
+          <t>2025-05-03T14:25:09Z</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4.44</v>
+        <v>17.86</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>03:21</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1733,15 +2038,20 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>14321852871</v>
+        <v>14353861867</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-04-29T12:39:57Z</t>
+          <t>2025-05-02T11:53:41Z</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.5</v>
+        <v>15.98</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>03:45</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1750,19 +2060,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chill 5k</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14312012122</v>
+        <v>14321852871</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-04-28T13:43:08Z</t>
+          <t>2025-04-29T12:39:57Z</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4.2</v>
+        <v>16.2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>03:42</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1771,19 +2086,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Chill 5k</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14295308324</v>
+        <v>14312012122</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-04-26T12:43:02Z</t>
+          <t>2025-04-28T13:43:08Z</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4.18</v>
+        <v>15.12</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>03:58</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1792,19 +2112,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5km sub 24</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14250549284</v>
+        <v>14295308324</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-04-22T10:31:46Z</t>
+          <t>2025-04-26T12:43:02Z</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.68</v>
+        <v>15.05</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>03:59</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1813,19 +2138,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Test allure 4:30 pt.2</t>
+          <t>5km sub 24</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14234124909</v>
+        <v>14250549284</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-04-20T15:08:01Z</t>
+          <t>2025-04-22T10:31:46Z</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.12</v>
+        <v>16.85</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>03:33</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -1834,19 +2164,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Test allure 4:30 pt.1</t>
+          <t>Test allure 4:30 pt.2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14234124267</v>
+        <v>14234124909</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-04-20T14:53:47Z</t>
+          <t>2025-04-20T15:08:01Z</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4.12</v>
+        <v>14.83</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>04:02</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1855,19 +2190,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Test allure 4:30 pt.1</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>14223985631</v>
+        <v>14234124267</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-04-19T14:04:22Z</t>
+          <t>2025-04-20T14:53:47Z</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.4</v>
+        <v>14.83</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>04:02</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1880,15 +2220,20 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>14194133150</v>
+        <v>14223985631</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-04-16T13:15:32Z</t>
+          <t>2025-04-19T14:04:22Z</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.26</v>
+        <v>15.84</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>03:47</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1901,15 +2246,20 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14175557185</v>
+        <v>14194133150</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-04-14T15:19:54Z</t>
+          <t>2025-04-16T13:15:32Z</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.66</v>
+        <v>15.34</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>03:54</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1918,19 +2268,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>First Toinz's run of 2025</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>14164796198</v>
+        <v>14175557185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-04-13T11:34:33Z</t>
+          <t>2025-04-14T15:19:54Z</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.94</v>
+        <v>16.78</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>03:34</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1939,19 +2294,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5km EF</t>
+          <t>First Toinz's run of 2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>14147587813</v>
+        <v>14164796198</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-04-11T16:20:45Z</t>
+          <t>2025-04-13T11:34:33Z</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4.1</v>
+        <v>14.18</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>04:13</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1960,19 +2320,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cardio after workout</t>
+          <t>5km EF</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>14106868843</v>
+        <v>14147587813</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-04-07T14:04:44Z</t>
+          <t>2025-04-11T16:20:45Z</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.58</v>
+        <v>14.76</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>04:04</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1981,19 +2346,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chill 5k</t>
+          <t>cardio after workout</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>14088066118</v>
+        <v>14106868843</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-04-05T14:12:36Z</t>
+          <t>2025-04-07T14:04:44Z</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.94</v>
+        <v>16.49</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>03:38</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2002,19 +2372,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Chill 5k</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>14078305148</v>
+        <v>14088066118</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-04-04T14:12:20Z</t>
+          <t>2025-04-05T14:12:36Z</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4.38</v>
+        <v>14.18</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>04:13</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -2023,19 +2398,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ez</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>14068494201</v>
+        <v>14078305148</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-04-03T13:40:10Z</t>
+          <t>2025-04-04T14:12:20Z</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.94</v>
+        <v>15.77</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>03:47</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -2044,19 +2424,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>ez</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>14061678650</v>
+        <v>14068494201</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-04-02T14:44:38Z</t>
+          <t>2025-04-03T13:40:10Z</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.82</v>
+        <v>17.78</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>03:22</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2069,15 +2454,20 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>14038383362</v>
+        <v>14061678650</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-31T12:46:45Z</t>
+          <t>2025-04-02T14:44:38Z</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5.34</v>
+        <v>13.75</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>04:21</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2086,19 +2476,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10k in pain</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>14020823219</v>
+        <v>14038383362</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-29T13:41:13Z</t>
+          <t>2025-03-31T12:46:45Z</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4.14</v>
+        <v>19.22</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>03:07</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2107,19 +2502,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>10k in pain</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>14002587041</v>
+        <v>14020823219</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-27T14:30:01Z</t>
+          <t>2025-03-29T13:41:13Z</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.38</v>
+        <v>14.9</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>04:01</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -2128,19 +2528,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1h run</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13993907029</v>
+        <v>14002587041</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-26T15:39:30Z</t>
+          <t>2025-03-27T14:30:01Z</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4.38</v>
+        <v>15.77</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>03:47</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2149,19 +2554,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>1h run</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>13972077955</v>
+        <v>13993907029</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-24T11:11:08Z</t>
+          <t>2025-03-26T15:39:30Z</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4.28</v>
+        <v>15.77</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>03:47</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -2170,19 +2580,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13954304186</v>
+        <v>13972077955</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-22T12:52:39Z</t>
+          <t>2025-03-24T11:11:08Z</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.64</v>
+        <v>15.41</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>03:53</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2191,19 +2606,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>First 5k</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>13943708973</v>
+        <v>13954304186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-03-21T10:19:01Z</t>
+          <t>2025-03-22T12:52:39Z</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4.34</v>
+        <v>16.7</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>03:35</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2212,19 +2632,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Afternoon Run</t>
+          <t>First 5k</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>13927346809</v>
+        <v>13943708973</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-19T14:44:23Z</t>
+          <t>2025-03-21T10:19:01Z</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5.06</v>
+        <v>15.62</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>03:50</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2233,19 +2658,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lunch Run</t>
+          <t>Afternoon Run</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>13906587182</v>
+        <v>13927346809</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-03-17T10:56:18Z</t>
+          <t>2025-03-19T14:44:23Z</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.24</v>
+        <v>18.22</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>03:17</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -2254,19 +2684,50 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>Lunch Run</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>13906587182</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-03-17T10:56:18Z</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>03:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>Evening Run</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C88" t="n">
         <v>13901459544</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>2025-03-16T17:21:03Z</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>5.62</v>
+      <c r="E88" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>02:58</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/max_speed.xlsx
+++ b/data/max_speed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>max_speed_km_per_hour</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>max_speed_min_per_km</t>
         </is>
       </c>
@@ -478,12 +483,13 @@
         </is>
       </c>
       <c r="E2" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F2" t="n">
         <v>15.91</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>03:46</t>
-        </is>
+      <c r="G2" t="n">
+        <v>3.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,12 +510,13 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F3" t="n">
         <v>17.28</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>03:28</t>
-        </is>
+      <c r="G3" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="4">
@@ -530,12 +537,13 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F4" t="n">
         <v>14.26</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>04:12</t>
-        </is>
+      <c r="G4" t="n">
+        <v>4.12</v>
       </c>
     </row>
     <row r="5">
@@ -556,12 +564,13 @@
         </is>
       </c>
       <c r="E5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F5" t="n">
         <v>17.28</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>03:28</t>
-        </is>
+      <c r="G5" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="6">
@@ -582,12 +591,13 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F6" t="n">
         <v>15.19</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>03:57</t>
-        </is>
+      <c r="G6" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="7">
@@ -608,12 +618,13 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F7" t="n">
         <v>12.17</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>04:55</t>
-        </is>
+      <c r="G7" t="n">
+        <v>4.56</v>
       </c>
     </row>
     <row r="8">
@@ -634,12 +645,13 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F8" t="n">
         <v>15.41</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>03:53</t>
-        </is>
+      <c r="G8" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="9">
@@ -660,12 +672,13 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F9" t="n">
         <v>12.67</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>04:44</t>
-        </is>
+      <c r="G9" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row r="10">
@@ -686,12 +699,13 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F10" t="n">
         <v>11.95</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>05:01</t>
-        </is>
+      <c r="G10" t="n">
+        <v>5.01</v>
       </c>
     </row>
     <row r="11">
@@ -712,12 +726,13 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F11" t="n">
         <v>14.9</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>04:01</t>
-        </is>
+      <c r="G11" t="n">
+        <v>4.02</v>
       </c>
     </row>
     <row r="12">
@@ -738,12 +753,13 @@
         </is>
       </c>
       <c r="E12" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F12" t="n">
         <v>12.38</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>04:50</t>
-        </is>
+      <c r="G12" t="n">
+        <v>4.51</v>
       </c>
     </row>
     <row r="13">
@@ -764,12 +780,13 @@
         </is>
       </c>
       <c r="E13" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F13" t="n">
         <v>12.17</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>04:55</t>
-        </is>
+      <c r="G13" t="n">
+        <v>4.56</v>
       </c>
     </row>
     <row r="14">
@@ -790,12 +807,13 @@
         </is>
       </c>
       <c r="E14" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F14" t="n">
         <v>19.73</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>03:02</t>
-        </is>
+      <c r="G14" t="n">
+        <v>3.02</v>
       </c>
     </row>
     <row r="15">
@@ -816,12 +834,13 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F15" t="n">
         <v>15.12</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>03:58</t>
-        </is>
+      <c r="G15" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="16">
@@ -842,12 +861,13 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F16" t="n">
         <v>19.37</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>03:06</t>
-        </is>
+      <c r="G16" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="17">
@@ -868,12 +888,13 @@
         </is>
       </c>
       <c r="E17" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F17" t="n">
         <v>12.67</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>04:44</t>
-        </is>
+      <c r="G17" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row r="18">
@@ -894,12 +915,13 @@
         </is>
       </c>
       <c r="E18" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F18" t="n">
         <v>13.46</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>04:27</t>
-        </is>
+      <c r="G18" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="19">
@@ -920,12 +942,13 @@
         </is>
       </c>
       <c r="E19" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F19" t="n">
         <v>16.7</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>03:35</t>
-        </is>
+      <c r="G19" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="20">
@@ -946,12 +969,13 @@
         </is>
       </c>
       <c r="E20" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F20" t="n">
         <v>16.85</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>03:33</t>
-        </is>
+      <c r="G20" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="21">
@@ -972,12 +996,13 @@
         </is>
       </c>
       <c r="E21" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F21" t="n">
         <v>15.19</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>03:57</t>
-        </is>
+      <c r="G21" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="22">
@@ -998,12 +1023,13 @@
         </is>
       </c>
       <c r="E22" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F22" t="n">
         <v>12.82</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>04:40</t>
-        </is>
+      <c r="G22" t="n">
+        <v>4.41</v>
       </c>
     </row>
     <row r="23">
@@ -1024,12 +1050,13 @@
         </is>
       </c>
       <c r="E23" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F23" t="n">
         <v>13.75</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>04:21</t>
-        </is>
+      <c r="G23" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="24">
@@ -1050,12 +1077,13 @@
         </is>
       </c>
       <c r="E24" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F24" t="n">
         <v>26.42</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>02:16</t>
-        </is>
+      <c r="G24" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="25">
@@ -1076,12 +1104,13 @@
         </is>
       </c>
       <c r="E25" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F25" t="n">
         <v>13.61</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>04:24</t>
-        </is>
+      <c r="G25" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="26">
@@ -1102,12 +1131,13 @@
         </is>
       </c>
       <c r="E26" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F26" t="n">
         <v>19.51</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>03:04</t>
-        </is>
+      <c r="G26" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="27">
@@ -1128,12 +1158,13 @@
         </is>
       </c>
       <c r="E27" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F27" t="n">
         <v>11.45</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>05:14</t>
-        </is>
+      <c r="G27" t="n">
+        <v>5.14</v>
       </c>
     </row>
     <row r="28">
@@ -1154,12 +1185,13 @@
         </is>
       </c>
       <c r="E28" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F28" t="n">
         <v>14.62</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>04:05</t>
-        </is>
+      <c r="G28" t="n">
+        <v>4.06</v>
       </c>
     </row>
     <row r="29">
@@ -1180,12 +1212,13 @@
         </is>
       </c>
       <c r="E29" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F29" t="n">
         <v>15.41</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>03:53</t>
-        </is>
+      <c r="G29" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="30">
@@ -1206,12 +1239,13 @@
         </is>
       </c>
       <c r="E30" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F30" t="n">
         <v>15.41</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>03:53</t>
-        </is>
+      <c r="G30" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="31">
@@ -1232,12 +1266,13 @@
         </is>
       </c>
       <c r="E31" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F31" t="n">
         <v>14.9</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>04:01</t>
-        </is>
+      <c r="G31" t="n">
+        <v>4.02</v>
       </c>
     </row>
     <row r="32">
@@ -1258,12 +1293,13 @@
         </is>
       </c>
       <c r="E32" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F32" t="n">
         <v>14.9</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>04:01</t>
-        </is>
+      <c r="G32" t="n">
+        <v>4.02</v>
       </c>
     </row>
     <row r="33">
@@ -1284,12 +1320,13 @@
         </is>
       </c>
       <c r="E33" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F33" t="n">
         <v>15.77</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>03:47</t>
-        </is>
+      <c r="G33" t="n">
+        <v>3.48</v>
       </c>
     </row>
     <row r="34">
@@ -1310,12 +1347,13 @@
         </is>
       </c>
       <c r="E34" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F34" t="n">
         <v>13.18</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>04:32</t>
-        </is>
+      <c r="G34" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="35">
@@ -1336,12 +1374,13 @@
         </is>
       </c>
       <c r="E35" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F35" t="n">
         <v>13.1</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>04:34</t>
-        </is>
+      <c r="G35" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="36">
@@ -1364,12 +1403,13 @@
         </is>
       </c>
       <c r="E36" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F36" t="n">
         <v>13.9</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>04:19</t>
-        </is>
+      <c r="G36" t="n">
+        <v>4.19</v>
       </c>
     </row>
     <row r="37">
@@ -1396,12 +1436,13 @@
         </is>
       </c>
       <c r="E37" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F37" t="n">
         <v>14.62</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>04:05</t>
-        </is>
+      <c r="G37" t="n">
+        <v>4.06</v>
       </c>
     </row>
     <row r="38">
@@ -1422,12 +1463,13 @@
         </is>
       </c>
       <c r="E38" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F38" t="n">
         <v>13.1</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>04:34</t>
-        </is>
+      <c r="G38" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="39">
@@ -1448,12 +1490,13 @@
         </is>
       </c>
       <c r="E39" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F39" t="n">
         <v>15.05</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>03:59</t>
-        </is>
+      <c r="G39" t="n">
+        <v>3.59</v>
       </c>
     </row>
     <row r="40">
@@ -1474,12 +1517,13 @@
         </is>
       </c>
       <c r="E40" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F40" t="n">
         <v>14.83</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>04:02</t>
-        </is>
+      <c r="G40" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row r="41">
@@ -1500,12 +1544,13 @@
         </is>
       </c>
       <c r="E41" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F41" t="n">
         <v>15.19</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>03:57</t>
-        </is>
+      <c r="G41" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="42">
@@ -1526,12 +1571,13 @@
         </is>
       </c>
       <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
         <v>14.4</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>04:10</t>
-        </is>
+      <c r="G42" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="43">
@@ -1552,12 +1598,13 @@
         </is>
       </c>
       <c r="E43" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F43" t="n">
         <v>15.91</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>03:46</t>
-        </is>
+      <c r="G43" t="n">
+        <v>3.46</v>
       </c>
     </row>
     <row r="44">
@@ -1578,12 +1625,13 @@
         </is>
       </c>
       <c r="E44" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F44" t="n">
         <v>16.34</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>03:40</t>
-        </is>
+      <c r="G44" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="45">
@@ -1604,12 +1652,13 @@
         </is>
       </c>
       <c r="E45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F45" t="n">
         <v>15.12</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>03:58</t>
-        </is>
+      <c r="G45" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="46">
@@ -1630,12 +1679,13 @@
         </is>
       </c>
       <c r="E46" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F46" t="n">
         <v>15.55</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>03:51</t>
-        </is>
+      <c r="G46" t="n">
+        <v>3.52</v>
       </c>
     </row>
     <row r="47">
@@ -1656,12 +1706,13 @@
         </is>
       </c>
       <c r="E47" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F47" t="n">
         <v>13.54</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>04:25</t>
-        </is>
+      <c r="G47" t="n">
+        <v>4.26</v>
       </c>
     </row>
     <row r="48">
@@ -1682,12 +1733,13 @@
         </is>
       </c>
       <c r="E48" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F48" t="n">
         <v>14.9</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>04:01</t>
-        </is>
+      <c r="G48" t="n">
+        <v>4.02</v>
       </c>
     </row>
     <row r="49">
@@ -1708,12 +1760,13 @@
         </is>
       </c>
       <c r="E49" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F49" t="n">
         <v>16.27</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>03:41</t>
-        </is>
+      <c r="G49" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="50">
@@ -1734,12 +1787,13 @@
         </is>
       </c>
       <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F50" t="n">
         <v>16.2</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>03:42</t>
-        </is>
+      <c r="G50" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="51">
@@ -1760,12 +1814,13 @@
         </is>
       </c>
       <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
         <v>14.4</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>04:10</t>
-        </is>
+      <c r="G51" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="52">
@@ -1786,12 +1841,13 @@
         </is>
       </c>
       <c r="E52" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F52" t="n">
         <v>15.62</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>03:50</t>
-        </is>
+      <c r="G52" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="53">
@@ -1812,12 +1868,13 @@
         </is>
       </c>
       <c r="E53" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F53" t="n">
         <v>17.06</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>03:31</t>
-        </is>
+      <c r="G53" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="54">
@@ -1838,12 +1895,13 @@
         </is>
       </c>
       <c r="E54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F54" t="n">
         <v>16.2</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>03:42</t>
-        </is>
+      <c r="G54" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="55">
@@ -1864,12 +1922,13 @@
         </is>
       </c>
       <c r="E55" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F55" t="n">
         <v>19.22</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>03:07</t>
-        </is>
+      <c r="G55" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="56">
@@ -1890,12 +1949,13 @@
         </is>
       </c>
       <c r="E56" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F56" t="n">
         <v>13.82</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>04:20</t>
-        </is>
+      <c r="G56" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="57">
@@ -1916,12 +1976,13 @@
         </is>
       </c>
       <c r="E57" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F57" t="n">
         <v>14.76</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>04:04</t>
-        </is>
+      <c r="G57" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="58">
@@ -1942,12 +2003,13 @@
         </is>
       </c>
       <c r="E58" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F58" t="n">
         <v>15.34</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>03:54</t>
-        </is>
+      <c r="G58" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="59">
@@ -1968,12 +2030,13 @@
         </is>
       </c>
       <c r="E59" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F59" t="n">
         <v>17.42</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>03:26</t>
-        </is>
+      <c r="G59" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="60">
@@ -1994,12 +2057,13 @@
         </is>
       </c>
       <c r="E60" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F60" t="n">
         <v>15.48</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>03:52</t>
-        </is>
+      <c r="G60" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="61">
@@ -2020,12 +2084,13 @@
         </is>
       </c>
       <c r="E61" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F61" t="n">
         <v>17.86</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>03:21</t>
-        </is>
+      <c r="G61" t="n">
+        <v>3.22</v>
       </c>
     </row>
     <row r="62">
@@ -2046,12 +2111,13 @@
         </is>
       </c>
       <c r="E62" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F62" t="n">
         <v>15.98</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>03:45</t>
-        </is>
+      <c r="G62" t="n">
+        <v>3.45</v>
       </c>
     </row>
     <row r="63">
@@ -2072,12 +2138,13 @@
         </is>
       </c>
       <c r="E63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F63" t="n">
         <v>16.2</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>03:42</t>
-        </is>
+      <c r="G63" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="64">
@@ -2098,12 +2165,13 @@
         </is>
       </c>
       <c r="E64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F64" t="n">
         <v>15.12</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>03:58</t>
-        </is>
+      <c r="G64" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="65">
@@ -2124,12 +2192,13 @@
         </is>
       </c>
       <c r="E65" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F65" t="n">
         <v>15.05</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>03:59</t>
-        </is>
+      <c r="G65" t="n">
+        <v>3.59</v>
       </c>
     </row>
     <row r="66">
@@ -2150,12 +2219,13 @@
         </is>
       </c>
       <c r="E66" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="F66" t="n">
         <v>16.85</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>03:33</t>
-        </is>
+      <c r="G66" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="67">
@@ -2176,12 +2246,13 @@
         </is>
       </c>
       <c r="E67" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F67" t="n">
         <v>14.83</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>04:02</t>
-        </is>
+      <c r="G67" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row r="68">
@@ -2202,12 +2273,13 @@
         </is>
       </c>
       <c r="E68" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F68" t="n">
         <v>14.83</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>04:02</t>
-        </is>
+      <c r="G68" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row r="69">
@@ -2228,12 +2300,13 @@
         </is>
       </c>
       <c r="E69" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F69" t="n">
         <v>15.84</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>03:47</t>
-        </is>
+      <c r="G69" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="70">
@@ -2254,12 +2327,13 @@
         </is>
       </c>
       <c r="E70" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F70" t="n">
         <v>15.34</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>03:54</t>
-        </is>
+      <c r="G70" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="71">
@@ -2280,12 +2354,13 @@
         </is>
       </c>
       <c r="E71" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="F71" t="n">
         <v>16.78</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>03:34</t>
-        </is>
+      <c r="G71" t="n">
+        <v>3.35</v>
       </c>
     </row>
     <row r="72">
@@ -2306,12 +2381,13 @@
         </is>
       </c>
       <c r="E72" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F72" t="n">
         <v>14.18</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>04:13</t>
-        </is>
+      <c r="G72" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="73">
@@ -2332,12 +2408,13 @@
         </is>
       </c>
       <c r="E73" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F73" t="n">
         <v>14.76</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>04:04</t>
-        </is>
+      <c r="G73" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="74">
@@ -2358,12 +2435,13 @@
         </is>
       </c>
       <c r="E74" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F74" t="n">
         <v>16.49</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>03:38</t>
-        </is>
+      <c r="G74" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="75">
@@ -2384,12 +2462,13 @@
         </is>
       </c>
       <c r="E75" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F75" t="n">
         <v>14.18</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>04:13</t>
-        </is>
+      <c r="G75" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="76">
@@ -2410,12 +2489,13 @@
         </is>
       </c>
       <c r="E76" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F76" t="n">
         <v>15.77</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>03:47</t>
-        </is>
+      <c r="G76" t="n">
+        <v>3.48</v>
       </c>
     </row>
     <row r="77">
@@ -2436,12 +2516,13 @@
         </is>
       </c>
       <c r="E77" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="F77" t="n">
         <v>17.78</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>03:22</t>
-        </is>
+      <c r="G77" t="n">
+        <v>3.22</v>
       </c>
     </row>
     <row r="78">
@@ -2462,12 +2543,13 @@
         </is>
       </c>
       <c r="E78" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F78" t="n">
         <v>13.75</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>04:21</t>
-        </is>
+      <c r="G78" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="79">
@@ -2488,12 +2570,13 @@
         </is>
       </c>
       <c r="E79" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F79" t="n">
         <v>19.22</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>03:07</t>
-        </is>
+      <c r="G79" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="80">
@@ -2514,12 +2597,13 @@
         </is>
       </c>
       <c r="E80" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F80" t="n">
         <v>14.9</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>04:01</t>
-        </is>
+      <c r="G80" t="n">
+        <v>4.02</v>
       </c>
     </row>
     <row r="81">
@@ -2540,12 +2624,13 @@
         </is>
       </c>
       <c r="E81" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F81" t="n">
         <v>15.77</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>03:47</t>
-        </is>
+      <c r="G81" t="n">
+        <v>3.48</v>
       </c>
     </row>
     <row r="82">
@@ -2566,12 +2651,13 @@
         </is>
       </c>
       <c r="E82" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F82" t="n">
         <v>15.77</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>03:47</t>
-        </is>
+      <c r="G82" t="n">
+        <v>3.48</v>
       </c>
     </row>
     <row r="83">
@@ -2592,12 +2678,13 @@
         </is>
       </c>
       <c r="E83" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F83" t="n">
         <v>15.41</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>03:53</t>
-        </is>
+      <c r="G83" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="84">
@@ -2618,12 +2705,13 @@
         </is>
       </c>
       <c r="E84" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F84" t="n">
         <v>16.7</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>03:35</t>
-        </is>
+      <c r="G84" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="85">
@@ -2644,12 +2732,13 @@
         </is>
       </c>
       <c r="E85" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F85" t="n">
         <v>15.62</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>03:50</t>
-        </is>
+      <c r="G85" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="86">
@@ -2670,12 +2759,13 @@
         </is>
       </c>
       <c r="E86" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F86" t="n">
         <v>18.22</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>03:17</t>
-        </is>
+      <c r="G86" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="87">
@@ -2696,12 +2786,13 @@
         </is>
       </c>
       <c r="E87" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F87" t="n">
         <v>15.26</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>03:55</t>
-        </is>
+      <c r="G87" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="88">
@@ -2722,12 +2813,13 @@
         </is>
       </c>
       <c r="E88" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F88" t="n">
         <v>20.23</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>02:58</t>
-        </is>
+      <c r="G88" t="n">
+        <v>2.58</v>
       </c>
     </row>
   </sheetData>
